--- a/docs/開発完了報告書.xlsx
+++ b/docs/開発完了報告書.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\LE関連\2019\開発合宿\twitter_analysis\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CA13D-D2C8-4128-94B1-803CDC798B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6660"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="完了報告書" sheetId="3" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hirao</author>
   </authors>
   <commentList>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -290,6 +296,348 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トピックモデルによる短文の分類</t>
+    <rPh sb="10" eb="12">
+      <t>タンブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トピックモデル作成手順の確立</t>
+    <rPh sb="7" eb="11">
+      <t>サクセイテジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習用コーパス, 初期モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トピックの定義と評価方法の確立</t>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価方法, 改良されたモデル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューニング、考察</t>
+    <rPh sb="7" eb="9">
+      <t>コウサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価用文書, 分類結果, レポート</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　5日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　6日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画書にはラップトップの環境のみ書きましたが、デスクトップ PC を使うことの方が多かったです。ただ、これは想定内でした。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ソウテイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　11日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　+6日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　9日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　+3日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　4日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　-2日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きいデータを扱うのに、思いのほか色んな仕組みが必要でした。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gensim を使ってトピックモデルを作ることは、予定どおり出来ました。:)
+大量のツイートをローカルの DB に保存して、データセットとして使う仕組みは、予定どおり出来ました。:)
+ユーザごとのトピックの偏りを調べることは出来ませんでした。:(
+理由は、その手前のモデルの評価やチューニングが思うようにいかず、時間が足りなくなったためです。
+モデルの評価については、計画時からの不安要素でした。
+モデルのチューニングは、人が見て分類されているように見えない状態から、分類されているように見える状態にはなったと思います。未知のデータも分類できました。;)</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>カタヨ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="191" eb="195">
+      <t>フアンヨウソ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良かった点
+- 大量のデータを自分で集めて、プログラムで (メモリを節約しつつ) 扱うという経験が出来ました。
+- MongoDB の使い方を知ることが出来ました。
+- 最初からずっと、とうてい分類できているとは思えない状態だったので、最後に少しでもチューニングの結果が見えたのが良かったです。
+悪かった点
+- チューニングの指標として使った値が直感に反していて、モデルの評価を定量化できませんでした。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツヤク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>チョッカン</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="190" eb="193">
+      <t>テイリョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,8 +645,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -307,88 +655,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="17"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -405,6 +671,95 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="17"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -822,226 +1177,187 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1051,81 +1367,138 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,66 +1888,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="157" zoomScaleNormal="157" zoomScaleSheetLayoutView="166" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="166" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:V55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="3" customWidth="1"/>
-    <col min="2" max="14" width="4.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.125" style="3" customWidth="1"/>
-    <col min="16" max="21" width="4.625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="1.5" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="4.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="1" customWidth="1"/>
+    <col min="16" max="21" width="4.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="1.5" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="68" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="68" t="s">
+      <c r="N2" s="65"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="69"/>
+      <c r="Q2" s="65"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="69"/>
-    </row>
-    <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="T2" s="65"/>
+    </row>
+    <row r="3" spans="2:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33"/>
-    </row>
-    <row r="4" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1585,17 +1958,17 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-    </row>
-    <row r="5" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="29"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1606,55 +1979,59 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="37"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="2:21" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="38" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="39"/>
     </row>
     <row r="9" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -1681,7 +2058,9 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="46"/>
+      <c r="B10" s="46" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -1900,53 +2279,55 @@
       <c r="T19" s="53"/>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="2:41" s="1" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="2:41" s="3" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:41" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="46"/>
+      <c r="B22" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -2166,912 +2547,928 @@
       <c r="U31" s="54"/>
     </row>
     <row r="32" spans="2:41" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="45"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="12" t="s">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="20" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="20" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="55"/>
-      <c r="O34" s="13" t="s">
+      <c r="N34" s="19"/>
+      <c r="O34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="20" t="s">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="22"/>
-    </row>
-    <row r="35" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="29" t="s">
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="59"/>
+    </row>
+    <row r="35" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="97"/>
+    </row>
+    <row r="36" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="97"/>
+    </row>
+    <row r="37" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="93"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="97"/>
+    </row>
+    <row r="38" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="29" t="s">
+      <c r="L38" s="23"/>
+      <c r="M38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="30"/>
-      <c r="O35" s="29" t="s">
+      <c r="P38" s="23"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="97"/>
+    </row>
+    <row r="39" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="25"/>
-    </row>
-    <row r="36" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="29" t="s">
+      <c r="L39" s="23"/>
+      <c r="M39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="29" t="s">
+      <c r="N39" s="23"/>
+      <c r="O39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="29" t="s">
+      <c r="P39" s="23"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="97"/>
+    </row>
+    <row r="40" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="25"/>
-    </row>
-    <row r="37" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="29" t="s">
+      <c r="L40" s="23"/>
+      <c r="M40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="29" t="s">
+      <c r="N40" s="23"/>
+      <c r="O40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N37" s="30"/>
-      <c r="O37" s="29" t="s">
+      <c r="P40" s="23"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="97"/>
+    </row>
+    <row r="41" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="25"/>
-    </row>
-    <row r="38" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="29" t="s">
+      <c r="L41" s="21"/>
+      <c r="M41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="30"/>
-      <c r="O38" s="29" t="s">
+      <c r="N41" s="21"/>
+      <c r="O41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="25"/>
-    </row>
-    <row r="39" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" s="30"/>
-      <c r="O39" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="25"/>
-    </row>
-    <row r="40" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="25"/>
-    </row>
-    <row r="41" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="17"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="100"/>
     </row>
     <row r="42" spans="2:22" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-    </row>
-    <row r="43" spans="2:22" s="76" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="74" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+    </row>
+    <row r="43" spans="2:22" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B43" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="78"/>
-    </row>
-    <row r="44" spans="2:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="89"/>
-    </row>
-    <row r="45" spans="2:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="90"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="89"/>
-    </row>
-    <row r="46" spans="2:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="90"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="89"/>
-    </row>
-    <row r="47" spans="2:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="90"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="89"/>
-    </row>
-    <row r="48" spans="2:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="90"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="89"/>
-    </row>
-    <row r="49" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="90"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="89"/>
-    </row>
-    <row r="50" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="90"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="89"/>
-    </row>
-    <row r="51" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="90"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="89"/>
-    </row>
-    <row r="52" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="90"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="89"/>
-    </row>
-    <row r="53" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="90"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="89"/>
-    </row>
-    <row r="54" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="90"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="89"/>
-    </row>
-    <row r="55" spans="1:22" s="76" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="92"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="92"/>
-      <c r="Q55" s="92"/>
-      <c r="R55" s="92"/>
-      <c r="S55" s="92"/>
-      <c r="T55" s="92"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="93"/>
-    </row>
-    <row r="56" spans="1:22" s="76" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-    </row>
-    <row r="57" spans="1:22" s="76" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="86"/>
-      <c r="S57" s="86"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="86"/>
-    </row>
-    <row r="58" spans="1:22" s="76" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B58" s="74" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="63"/>
+    </row>
+    <row r="44" spans="2:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="77"/>
+    </row>
+    <row r="45" spans="2:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="78"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="77"/>
+    </row>
+    <row r="46" spans="2:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="78"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="77"/>
+    </row>
+    <row r="47" spans="2:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="78"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="77"/>
+    </row>
+    <row r="48" spans="2:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="78"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="77"/>
+    </row>
+    <row r="49" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="78"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="77"/>
+    </row>
+    <row r="50" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="78"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="77"/>
+    </row>
+    <row r="51" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="78"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="77"/>
+    </row>
+    <row r="52" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="78"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="77"/>
+    </row>
+    <row r="53" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="78"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="77"/>
+    </row>
+    <row r="54" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="78"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="77"/>
+    </row>
+    <row r="55" spans="1:22" s="15" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="81"/>
+    </row>
+    <row r="56" spans="1:22" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+    </row>
+    <row r="57" spans="1:22" s="15" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+    </row>
+    <row r="58" spans="1:22" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="77"/>
-      <c r="V58" s="78"/>
-    </row>
-    <row r="59" spans="1:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="81"/>
-    </row>
-    <row r="60" spans="1:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B60" s="82"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="81"/>
-    </row>
-    <row r="61" spans="1:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B61" s="82"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="80"/>
-      <c r="U61" s="80"/>
-      <c r="V61" s="81"/>
-    </row>
-    <row r="62" spans="1:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B62" s="82"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="80"/>
-      <c r="O62" s="80"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80"/>
-      <c r="T62" s="80"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="81"/>
-    </row>
-    <row r="63" spans="1:22" s="76" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="85"/>
-    </row>
-    <row r="64" spans="1:22" s="76" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="94"/>
-      <c r="B64" s="74" t="s">
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="63"/>
+    </row>
+    <row r="59" spans="1:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="82"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="84"/>
+    </row>
+    <row r="60" spans="1:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="85"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="84"/>
+    </row>
+    <row r="61" spans="1:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B61" s="85"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="84"/>
+    </row>
+    <row r="62" spans="1:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="85"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="84"/>
+    </row>
+    <row r="63" spans="1:22" s="15" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="86"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="87"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="87"/>
+      <c r="U63" s="87"/>
+      <c r="V63" s="88"/>
+    </row>
+    <row r="64" spans="1:22" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A64" s="17"/>
+      <c r="B64" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="77"/>
-      <c r="U64" s="77"/>
-      <c r="V64" s="78"/>
-    </row>
-    <row r="65" spans="2:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="80"/>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="80"/>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="80"/>
-      <c r="V65" s="81"/>
-    </row>
-    <row r="66" spans="2:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B66" s="82"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="80"/>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="81"/>
-    </row>
-    <row r="67" spans="2:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B67" s="82"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="81"/>
-    </row>
-    <row r="68" spans="2:22" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="B68" s="82"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="80"/>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="80"/>
-      <c r="R68" s="80"/>
-      <c r="S68" s="80"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="81"/>
-    </row>
-    <row r="69" spans="2:22" s="76" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="83"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="85"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="63"/>
+    </row>
+    <row r="65" spans="2:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="83"/>
+      <c r="R65" s="83"/>
+      <c r="S65" s="83"/>
+      <c r="T65" s="83"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="84"/>
+    </row>
+    <row r="66" spans="2:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="85"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="84"/>
+    </row>
+    <row r="67" spans="2:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="85"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="83"/>
+      <c r="T67" s="83"/>
+      <c r="U67" s="83"/>
+      <c r="V67" s="84"/>
+    </row>
+    <row r="68" spans="2:22" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="85"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="83"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="83"/>
+      <c r="V68" s="84"/>
+    </row>
+    <row r="69" spans="2:22" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="86"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
+      <c r="S69" s="87"/>
+      <c r="T69" s="87"/>
+      <c r="U69" s="87"/>
+      <c r="V69" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -3096,39 +3493,37 @@
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="S3:T5"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="M3:N5"/>
+    <mergeCell ref="P3:Q5"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B10:U19"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="M3:N5"/>
-    <mergeCell ref="P3:Q5"/>
-    <mergeCell ref="S3:T5"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="P8:U8"/>
     <mergeCell ref="B21:U21"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="Q40:U40"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="Q41:U41"/>
@@ -3138,18 +3533,20 @@
     <mergeCell ref="Q37:U37"/>
     <mergeCell ref="Q38:U38"/>
     <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.67" right="0.25" top="0.47244094488188981" bottom="0.37" header="0.35433070866141736" footer="0.25"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;10&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>